--- a/image_gen/notes.xlsx
+++ b/image_gen/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Artly\image_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B12FF16-8136-4B5F-B9C5-9F367739940D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6757E4-0185-4777-BD47-61E79FC65D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16536" yWindow="180" windowWidth="12960" windowHeight="7284" xr2:uid="{67AD5801-EA27-4569-A672-1BE25860F869}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>_k</t>
   </si>
@@ -221,6 +221,69 @@
   </si>
   <si>
     <t>trials = 2</t>
+  </si>
+  <si>
+    <t>Network 2</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha </t>
+  </si>
+  <si>
+    <t>no kmeans</t>
+  </si>
+  <si>
+    <t>depth = 5</t>
+  </si>
+  <si>
+    <t>Run 2, 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>yes kmeans</t>
+  </si>
+  <si>
+    <t>alpha = 0.0000001</t>
+  </si>
+  <si>
+    <t>t = 1</t>
+  </si>
+  <si>
+    <t>Training Run 10</t>
+  </si>
+  <si>
+    <t>size = 240 (convoluted)</t>
+  </si>
+  <si>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>size = 300</t>
+  </si>
+  <si>
+    <t>Training Run 11</t>
+  </si>
+  <si>
+    <t>_alpha = 0.0000002</t>
+  </si>
+  <si>
+    <t>size = 300 (convoluted)</t>
+  </si>
+  <si>
+    <t>Network 2.0</t>
+  </si>
+  <si>
+    <t>alph = .0001</t>
   </si>
 </sst>
 </file>
@@ -377,7 +440,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$M$52:$M$60,Sheet1!$P$52:$P$75,Sheet1!$S$52:$S$67)</c:f>
+              <c:f>(Sheet1!$M$59:$M$67,Sheet1!$P$59:$P$82,Sheet1!$S$59:$S$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -788,7 +851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$51</c:f>
+              <c:f>Sheet1!$S$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -811,7 +874,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$52:$S$68</c:f>
+              <c:f>Sheet1!$S$59:$S$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -2165,13 +2228,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>106466</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>125407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>413411</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>125407</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2201,13 +2264,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>64394</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>163132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>354168</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>169572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2533,974 +2596,1284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6D6B6-B4C5-4134-8861-2F4F6367F910}">
-  <dimension ref="A8:AC75"/>
+  <dimension ref="A2:AV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S33" zoomScale="71" workbookViewId="0">
-      <selection activeCell="AB55" sqref="AB55"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="44" max="44" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4862.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H15" t="s">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D9">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E16">
         <v>250</v>
       </c>
-      <c r="F9">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="H9">
-        <f>E9*F9*4+D9*3</f>
+      <c r="H16">
+        <f>E16*F16*4+D16*3</f>
         <v>2030</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="N16">
         <v>252</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O16" t="s">
         <v>47</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="M10" t="s">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
         <v>44</v>
       </c>
-      <c r="N10">
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O17" t="s">
         <v>4</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M18" t="s">
         <v>45</v>
       </c>
-      <c r="N11">
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O18" t="s">
         <v>5</v>
       </c>
-      <c r="P11">
+      <c r="P18">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="E12">
-        <f>E9*F9</f>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f>E16*F16</f>
         <v>500</v>
       </c>
-      <c r="F12">
-        <f>F9</f>
+      <c r="F19">
+        <f>F16</f>
         <v>2</v>
       </c>
-      <c r="H12">
-        <f>E12</f>
+      <c r="H19">
+        <f>E19</f>
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="F15">
-        <f>E9*4</f>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f>E16*4</f>
         <v>1000</v>
       </c>
-      <c r="H15">
-        <f>F15</f>
+      <c r="H22">
+        <f>F22</f>
         <v>1000</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="M16" t="s">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="M17" t="s">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="H18" t="s">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="H19">
-        <f>(H12+1)*H9+(H12*(H12+1)*(F12-1))+(H15+1)*H12</f>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f>(H19+1)*H16+(H19*(H19+1)*(F19-1))+(H22+1)*H19</f>
         <v>1768030</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M26" t="s">
         <v>50</v>
       </c>
-      <c r="N19">
+      <c r="N26">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="M21" t="s">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
         <v>31</v>
       </c>
-      <c r="N21">
+      <c r="N28">
         <v>20990.6</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C24">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C31">
         <v>255</v>
       </c>
-      <c r="D24">
+      <c r="D31">
         <v>100</v>
       </c>
-      <c r="E24">
+      <c r="E31">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C27">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="C34">
         <v>255</v>
       </c>
-      <c r="D27">
+      <c r="D34">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E34">
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D36" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <f>(C27-C24)/(255 * 2) + 0.5</f>
+      <c r="AJ36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <f>(C34-C31)/(255 * 2) + 0.5</f>
         <v>0.5</v>
       </c>
-      <c r="D30">
-        <f>(D27-D24)/(255 * 2) + 0.5</f>
+      <c r="D37">
+        <f>(D34-D31)/(255 * 2) + 0.5</f>
         <v>0.30392156862745101</v>
       </c>
-      <c r="E30">
-        <f>(E27-E24)/(255 * 2) + 0.5</f>
+      <c r="E37">
+        <f>(E34-E31)/(255 * 2) + 0.5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+      <c r="AJ37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AJ38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <f>C27-(C30-0.5)/(255 * 2)</f>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f>C34-(C37-0.5)/(255 * 2)</f>
         <v>255</v>
       </c>
-      <c r="D33">
-        <f>D27-(D30-0.5)/(255 * 2)</f>
+      <c r="D40">
+        <f>D34-(D37-0.5)/(255 * 2)</f>
         <v>3.8446751249519411E-4</v>
       </c>
-      <c r="E33">
-        <f>E27-(E30-0.5)/(255 * 2)</f>
+      <c r="E40">
+        <f>E34-(E37-0.5)/(255 * 2)</f>
         <v>254.99901960784314</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="AU40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AK41" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AK42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL42">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO42">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR42">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AK43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL43">
+        <v>2</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AU44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="AK45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL45">
+        <v>18712</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO45">
+        <v>16797.7</v>
+      </c>
+      <c r="AU45">
+        <v>1</v>
+      </c>
+      <c r="AV45">
+        <v>20789.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="AO46">
+        <v>16091.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>43</v>
       </c>
-      <c r="C40">
+      <c r="C47">
         <v>252</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="C41">
+      <c r="C48">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="49" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C42">
+      <c r="C49">
         <v>10</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D49" t="s">
         <v>5</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="X44" t="s">
+    <row r="51" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="X51" t="s">
         <v>52</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="AE51" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>19</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F52" t="s">
         <v>24</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I52" t="s">
         <v>29</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L52" t="s">
         <v>33</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O52" t="s">
         <v>34</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R52" t="s">
         <v>36</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U52" t="s">
         <v>39</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X52" t="s">
         <v>38</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+      <c r="AE52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
         <v>20</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F53" t="s">
         <v>26</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I53" t="s">
         <v>26</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L53" t="s">
         <v>26</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O53" t="s">
         <v>26</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R53" t="s">
         <v>38</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U53" t="s">
         <v>41</v>
       </c>
-      <c r="X46" t="s">
+      <c r="X53" t="s">
         <v>23</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AB53" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+      <c r="AE53" t="s">
         <v>23</v>
       </c>
-      <c r="F47" t="s">
+      <c r="AI53" t="s">
         <v>23</v>
       </c>
-      <c r="I47" t="s">
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
         <v>23</v>
       </c>
-      <c r="L47" t="s">
+      <c r="F54" t="s">
         <v>23</v>
       </c>
-      <c r="O47" t="s">
+      <c r="I54" t="s">
         <v>23</v>
       </c>
-      <c r="R47" t="s">
+      <c r="L54" t="s">
         <v>23</v>
       </c>
-      <c r="U47" t="s">
+      <c r="O54" t="s">
         <v>23</v>
       </c>
-      <c r="X47" t="s">
+      <c r="R54" t="s">
+        <v>23</v>
+      </c>
+      <c r="U54" t="s">
+        <v>23</v>
+      </c>
+      <c r="X54" t="s">
         <v>40</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB54" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
+      <c r="AE54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>25</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F55" t="s">
         <v>27</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I55" t="s">
         <v>27</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L55" t="s">
         <v>32</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O55" t="s">
         <v>35</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R55" t="s">
         <v>35</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U55" t="s">
         <v>40</v>
       </c>
-      <c r="X48" t="s">
+      <c r="X55" t="s">
         <v>53</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AB55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="I49" t="s">
+      <c r="AE55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
         <v>30</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L56" t="s">
         <v>30</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O56" t="s">
         <v>30</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R56" t="s">
         <v>30</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U56" t="s">
         <v>30</v>
       </c>
-      <c r="X49" t="s">
+      <c r="X56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="57" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AE57" t="s">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
+      <c r="AF57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
         <v>22</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F58" t="s">
         <v>21</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G58" t="s">
         <v>28</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I58" t="s">
         <v>21</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J58" t="s">
         <v>28</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L58" t="s">
         <v>21</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M58" t="s">
         <v>28</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O58" t="s">
         <v>21</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P58" t="s">
         <v>28</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R58" t="s">
         <v>37</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S58" t="s">
         <v>28</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U58" t="s">
         <v>21</v>
       </c>
-      <c r="V51" t="s">
+      <c r="V58" t="s">
         <v>28</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AB58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B52">
+      <c r="AE58">
         <v>1</v>
       </c>
-      <c r="C52">
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>4317</v>
+      </c>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>44535.4</v>
       </c>
-      <c r="F52">
+      <c r="F59">
         <v>1</v>
       </c>
-      <c r="G52">
+      <c r="G59">
         <v>41979.9</v>
       </c>
-      <c r="I52">
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="J52">
+      <c r="J59">
         <v>24436.6</v>
       </c>
-      <c r="L52">
+      <c r="L59">
         <v>1</v>
       </c>
-      <c r="M52">
+      <c r="M59">
         <v>22823.9</v>
       </c>
-      <c r="O52">
+      <c r="O59">
         <v>1</v>
       </c>
-      <c r="P52">
+      <c r="P59">
         <v>20453.599999999999</v>
       </c>
-      <c r="R52">
+      <c r="R59">
         <v>1</v>
       </c>
-      <c r="S52">
+      <c r="S59">
         <v>5579.4</v>
       </c>
-      <c r="U52">
+      <c r="U59">
         <v>1</v>
       </c>
-      <c r="V52">
+      <c r="V59">
         <v>4697.6000000000004</v>
       </c>
-      <c r="X52" t="s">
+      <c r="X59" t="s">
         <v>31</v>
       </c>
-      <c r="AB52">
+      <c r="AB59">
         <v>1</v>
       </c>
-      <c r="AC52">
+      <c r="AC59">
         <v>4340.38</v>
       </c>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B53">
+      <c r="AE59">
         <v>2</v>
       </c>
-      <c r="C53">
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>4284.8</v>
+      </c>
+      <c r="AI59">
+        <v>2</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>4142.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>45546.8</v>
       </c>
-      <c r="F53">
+      <c r="F60">
         <v>2</v>
       </c>
-      <c r="G53">
+      <c r="G60">
         <v>42922.6</v>
       </c>
-      <c r="I53">
+      <c r="I60">
         <v>2</v>
       </c>
-      <c r="J53">
+      <c r="J60">
         <v>23601.5</v>
       </c>
-      <c r="L53">
+      <c r="L60">
         <v>2</v>
       </c>
-      <c r="M53">
+      <c r="M60">
         <v>22111.4</v>
       </c>
-      <c r="O53">
+      <c r="O60">
         <v>2</v>
       </c>
-      <c r="P53">
+      <c r="P60">
         <v>19687.599999999999</v>
       </c>
-      <c r="R53">
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="S53">
+      <c r="S60">
         <v>4694.5</v>
       </c>
-      <c r="U53">
+      <c r="U60">
         <v>2</v>
       </c>
-      <c r="V53">
+      <c r="V60">
         <v>4475.2</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Y60" t="s">
         <v>55</v>
       </c>
-      <c r="Z53">
+      <c r="Z60">
         <v>3893.33</v>
       </c>
-      <c r="AB53">
+      <c r="AB60">
         <v>2</v>
       </c>
-      <c r="AC53">
+      <c r="AC60">
         <v>4376.41</v>
       </c>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B54">
+      <c r="AE60">
         <v>3</v>
       </c>
-      <c r="C54">
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60">
+        <v>4247.6000000000004</v>
+      </c>
+      <c r="AI60">
+        <v>3</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>4059.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
         <v>45908.7</v>
       </c>
-      <c r="F54">
+      <c r="F61">
         <v>3</v>
       </c>
-      <c r="G54">
+      <c r="G61">
         <v>42930</v>
       </c>
-      <c r="I54">
+      <c r="I61">
         <v>3</v>
       </c>
-      <c r="J54">
+      <c r="J61">
         <v>24334.7</v>
       </c>
-      <c r="L54">
+      <c r="L61">
         <v>3</v>
       </c>
-      <c r="M54">
+      <c r="M61">
         <v>22146.799999999999</v>
       </c>
-      <c r="O54">
+      <c r="O61">
         <v>3</v>
       </c>
-      <c r="P54">
+      <c r="P61">
         <v>19584.2</v>
       </c>
-      <c r="R54">
+      <c r="R61">
         <v>3</v>
       </c>
-      <c r="S54">
+      <c r="S61">
         <v>4671.1000000000004</v>
       </c>
-      <c r="U54">
+      <c r="U61">
         <v>3</v>
       </c>
-      <c r="V54">
+      <c r="V61">
         <v>4463.75</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y61" t="s">
         <v>56</v>
       </c>
-      <c r="Z54">
+      <c r="Z61">
         <v>4019.7</v>
       </c>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="F55">
+      <c r="AE61">
         <v>4</v>
       </c>
-      <c r="G55">
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>4214.2</v>
+      </c>
+      <c r="AI61">
+        <v>4</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>4063.5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
         <v>43135.1</v>
       </c>
-      <c r="I55">
+      <c r="I62">
         <v>4</v>
       </c>
-      <c r="J55">
+      <c r="J62">
         <v>23366.9</v>
       </c>
-      <c r="L55">
+      <c r="L62">
         <v>4</v>
       </c>
-      <c r="M55">
+      <c r="M62">
         <v>21767.200000000001</v>
       </c>
-      <c r="O55">
+      <c r="O62">
         <v>4</v>
       </c>
-      <c r="P55">
+      <c r="P62">
         <v>18714</v>
       </c>
-      <c r="R55">
+      <c r="R62">
         <v>4</v>
       </c>
-      <c r="S55">
+      <c r="S62">
         <v>4365.1899999999996</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Y62" t="s">
         <v>57</v>
       </c>
-      <c r="Z55">
+      <c r="Z62">
         <v>3999.3</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AB62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="L56">
+      <c r="AE62">
         <v>5</v>
       </c>
-      <c r="M56">
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62">
+        <v>4097.2</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
         <v>20898.3</v>
       </c>
-      <c r="O56">
+      <c r="O63">
         <v>5</v>
       </c>
-      <c r="P56">
+      <c r="P63">
         <v>18609.900000000001</v>
       </c>
-      <c r="R56">
+      <c r="R63">
         <v>5</v>
       </c>
-      <c r="S56">
+      <c r="S63">
         <v>4617</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Y63" t="s">
         <v>58</v>
       </c>
-      <c r="Z56">
+      <c r="Z63">
         <v>4166.1000000000004</v>
       </c>
-      <c r="AB56">
+      <c r="AB63">
         <v>3</v>
       </c>
-      <c r="AC56">
+      <c r="AC63">
         <v>4280.7</v>
       </c>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="L57">
+      <c r="AE63">
         <v>6</v>
       </c>
-      <c r="M57">
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>4258.1000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="L64">
+        <v>6</v>
+      </c>
+      <c r="M64">
         <v>21210.5</v>
       </c>
-      <c r="O57">
+      <c r="O64">
         <v>6</v>
       </c>
-      <c r="P57">
+      <c r="P64">
         <v>17758.2</v>
       </c>
-      <c r="R57">
+      <c r="R64">
         <v>6</v>
       </c>
-      <c r="S57">
+      <c r="S64">
         <v>4555.6400000000003</v>
       </c>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="L58">
+      <c r="AB64">
+        <v>4</v>
+      </c>
+      <c r="AC64">
+        <v>4146.8999999999996</v>
+      </c>
+      <c r="AE64">
         <v>7</v>
       </c>
-      <c r="M58">
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>4259.7</v>
+      </c>
+    </row>
+    <row r="65" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
         <v>20990.5</v>
       </c>
-      <c r="O58">
+      <c r="O65">
         <v>7</v>
       </c>
-      <c r="P58">
+      <c r="P65">
         <v>17538.900000000001</v>
       </c>
-      <c r="R58">
+      <c r="R65">
         <v>7</v>
       </c>
-      <c r="S58">
+      <c r="S65">
         <v>4658.8999999999996</v>
       </c>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="L59">
+      <c r="AE65">
         <v>8</v>
       </c>
-      <c r="M59">
+      <c r="AF65">
+        <v>1</v>
+      </c>
+      <c r="AG65">
+        <v>4184.2</v>
+      </c>
+    </row>
+    <row r="66" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="L66">
+        <v>8</v>
+      </c>
+      <c r="M66">
         <v>20265.7</v>
       </c>
-      <c r="O59">
+      <c r="O66">
         <v>8</v>
       </c>
-      <c r="P59">
+      <c r="P66">
         <v>16760.5</v>
       </c>
-      <c r="R59">
+      <c r="R66">
         <v>8</v>
       </c>
-      <c r="S59">
+      <c r="S66">
         <v>4297</v>
       </c>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="L60">
+      <c r="AE66">
         <v>9</v>
       </c>
-      <c r="M60">
+      <c r="AF66">
+        <v>1</v>
+      </c>
+      <c r="AG66">
+        <v>4172.8</v>
+      </c>
+    </row>
+    <row r="67" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="L67">
+        <v>9</v>
+      </c>
+      <c r="M67">
         <v>20299.3</v>
       </c>
-      <c r="O60">
+      <c r="O67">
         <v>9</v>
       </c>
-      <c r="P60">
+      <c r="P67">
         <v>16166.1</v>
       </c>
-      <c r="R60">
+      <c r="R67">
         <v>9</v>
       </c>
-      <c r="S60">
+      <c r="S67">
         <v>4310.43</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="O61">
+    <row r="68" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O68">
         <v>10</v>
       </c>
-      <c r="P61">
+      <c r="P68">
         <v>16138.2</v>
       </c>
-      <c r="R61">
+      <c r="R68">
         <v>10</v>
       </c>
-      <c r="S61">
+      <c r="S68">
         <v>4358.8</v>
       </c>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="O62">
+    <row r="69" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O69">
         <v>11</v>
       </c>
-      <c r="P62">
+      <c r="P69">
         <v>15697.5</v>
       </c>
-      <c r="R62">
+      <c r="R69">
         <v>11</v>
       </c>
-      <c r="S62">
+      <c r="S69">
         <v>4229.2</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="O63">
+    <row r="70" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O70">
         <v>12</v>
       </c>
-      <c r="P63">
+      <c r="P70">
         <v>15594.4</v>
       </c>
-      <c r="R63">
+      <c r="R70">
         <v>12</v>
       </c>
-      <c r="S63">
+      <c r="S70">
         <v>4291</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="O64">
+    <row r="71" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O71">
         <v>13</v>
       </c>
-      <c r="P64">
+      <c r="P71">
         <v>14576</v>
       </c>
-      <c r="R64">
+      <c r="R71">
         <v>13</v>
       </c>
-      <c r="S64">
+      <c r="S71">
         <v>4441.6000000000004</v>
       </c>
     </row>
-    <row r="65" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O65">
+    <row r="72" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O72">
         <v>14</v>
       </c>
-      <c r="P65">
+      <c r="P72">
         <v>14442.7</v>
       </c>
-      <c r="R65">
+      <c r="R72">
         <v>14</v>
       </c>
-      <c r="S65">
+      <c r="S72">
         <v>4184.8999999999996</v>
       </c>
     </row>
-    <row r="66" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O66">
+    <row r="73" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O73">
         <v>15</v>
       </c>
-      <c r="P66">
+      <c r="P73">
         <v>13426.9</v>
       </c>
-      <c r="R66">
+      <c r="R73">
         <v>15</v>
       </c>
-      <c r="S66">
+      <c r="S73">
         <v>4213.7</v>
       </c>
     </row>
-    <row r="67" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O67">
+    <row r="74" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O74">
         <v>16</v>
       </c>
-      <c r="P67">
+      <c r="P74">
         <v>13911.9</v>
       </c>
-      <c r="R67">
+      <c r="R74">
         <v>16</v>
       </c>
-      <c r="S67">
+      <c r="S74">
         <v>4186.7</v>
       </c>
     </row>
-    <row r="68" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O68">
+    <row r="75" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O75">
         <v>17</v>
       </c>
-      <c r="P68">
+      <c r="P75">
         <v>12520.5</v>
       </c>
-      <c r="R68">
+      <c r="R75">
         <v>17</v>
       </c>
-      <c r="S68">
+      <c r="S75">
         <v>4403.8</v>
       </c>
     </row>
-    <row r="69" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O69">
+    <row r="76" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O76">
         <v>18</v>
       </c>
-      <c r="P69">
+      <c r="P76">
         <v>12455.1</v>
       </c>
     </row>
-    <row r="70" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O70">
+    <row r="77" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O77">
         <v>19</v>
       </c>
-      <c r="P70">
+      <c r="P77">
         <v>11806.2</v>
       </c>
     </row>
-    <row r="71" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O71">
+    <row r="78" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O78">
         <v>20</v>
       </c>
-      <c r="P71">
+      <c r="P78">
         <v>10782</v>
       </c>
     </row>
-    <row r="72" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O72">
+    <row r="79" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O79">
         <v>21</v>
       </c>
-      <c r="P72">
+      <c r="P79">
         <v>10914.9</v>
       </c>
     </row>
-    <row r="73" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O73">
+    <row r="80" spans="12:33" x14ac:dyDescent="0.3">
+      <c r="O80">
         <v>22</v>
       </c>
-      <c r="P73">
+      <c r="P80">
         <v>10101.5</v>
       </c>
     </row>
-    <row r="74" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O74">
+    <row r="81" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O81">
         <v>23</v>
       </c>
-      <c r="P74">
+      <c r="P81">
         <v>10669.9</v>
       </c>
     </row>
-    <row r="75" spans="15:19" x14ac:dyDescent="0.3">
-      <c r="O75">
+    <row r="82" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O82">
         <v>24</v>
       </c>
-      <c r="P75">
+      <c r="P82">
         <v>9636.7999999999993</v>
       </c>
     </row>
